--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H2">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N2">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q2">
-        <v>2.396367227012889</v>
+        <v>0.2711928831624444</v>
       </c>
       <c r="R2">
-        <v>21.567305043116</v>
+        <v>2.440735948462</v>
       </c>
       <c r="S2">
-        <v>0.1167025836543893</v>
+        <v>0.01436709355464965</v>
       </c>
       <c r="T2">
-        <v>0.1167025836543893</v>
+        <v>0.01436709355464966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H3">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.56316</v>
       </c>
       <c r="O3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q3">
-        <v>1.192248532035555</v>
+        <v>0.06696125860444443</v>
       </c>
       <c r="R3">
-        <v>10.73023678832</v>
+        <v>0.6026513274399999</v>
       </c>
       <c r="S3">
-        <v>0.05806225459865793</v>
+        <v>0.003547433309047721</v>
       </c>
       <c r="T3">
-        <v>0.05806225459865794</v>
+        <v>0.003547433309047722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H4">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N4">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q4">
-        <v>3.712666322007999</v>
+        <v>0.2654258085677778</v>
       </c>
       <c r="R4">
-        <v>33.41399689807199</v>
+        <v>2.38883227711</v>
       </c>
       <c r="S4">
-        <v>0.1808060747705436</v>
+        <v>0.014061568943266</v>
       </c>
       <c r="T4">
-        <v>0.1808060747705436</v>
+        <v>0.014061568943266</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H5">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N5">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q5">
-        <v>0.8388329835324443</v>
+        <v>0.1041182972935556</v>
       </c>
       <c r="R5">
-        <v>7.549496851791999</v>
+        <v>0.9370646756419999</v>
       </c>
       <c r="S5">
-        <v>0.04085099117082423</v>
+        <v>0.005515916570241663</v>
       </c>
       <c r="T5">
-        <v>0.04085099117082424</v>
+        <v>0.005515916570241664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J6">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N6">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q6">
-        <v>2.711334015800666</v>
+        <v>5.463250670980666</v>
       </c>
       <c r="R6">
-        <v>24.402006142206</v>
+        <v>49.16925603882599</v>
       </c>
       <c r="S6">
-        <v>0.1320414005112192</v>
+        <v>0.2894288101781256</v>
       </c>
       <c r="T6">
-        <v>0.1320414005112192</v>
+        <v>0.2894288101781257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J7">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.56316</v>
       </c>
       <c r="O7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q7">
         <v>1.348951848346666</v>
@@ -883,10 +883,10 @@
         <v>12.14056663512</v>
       </c>
       <c r="S7">
-        <v>0.06569367338730227</v>
+        <v>0.07146396018919569</v>
       </c>
       <c r="T7">
-        <v>0.06569367338730228</v>
+        <v>0.07146396018919572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J8">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N8">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q8">
-        <v>4.200641026427999</v>
+        <v>5.347071463836667</v>
       </c>
       <c r="R8">
-        <v>37.805769237852</v>
+        <v>48.12364317453</v>
       </c>
       <c r="S8">
-        <v>0.2045703409989661</v>
+        <v>0.2832739379754394</v>
       </c>
       <c r="T8">
-        <v>0.2045703409989661</v>
+        <v>0.2832739379754394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J9">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N9">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q9">
-        <v>0.9490850885413333</v>
+        <v>2.097489989107333</v>
       </c>
       <c r="R9">
-        <v>8.541765796871999</v>
+        <v>18.877409901966</v>
       </c>
       <c r="S9">
-        <v>0.04622024566689367</v>
+        <v>0.1111195638765911</v>
       </c>
       <c r="T9">
-        <v>0.04622024566689367</v>
+        <v>0.1111195638765911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H10">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I10">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J10">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N10">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O10">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P10">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q10">
-        <v>0.6101658970338889</v>
+        <v>1.461178678365</v>
       </c>
       <c r="R10">
-        <v>5.491493073305</v>
+        <v>13.150608105285</v>
       </c>
       <c r="S10">
-        <v>0.02971495179827459</v>
+        <v>0.07740944573222654</v>
       </c>
       <c r="T10">
-        <v>0.02971495179827459</v>
+        <v>0.07740944573222654</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H11">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I11">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J11">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.56316</v>
       </c>
       <c r="O11">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P11">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q11">
-        <v>0.3035717509555555</v>
+        <v>0.3607851437999999</v>
       </c>
       <c r="R11">
-        <v>2.732145758599999</v>
+        <v>3.2470662942</v>
       </c>
       <c r="S11">
-        <v>0.01478388089339765</v>
+        <v>0.01911345848628872</v>
       </c>
       <c r="T11">
-        <v>0.01478388089339765</v>
+        <v>0.01911345848628872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H12">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I12">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J12">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N12">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O12">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P12">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q12">
-        <v>0.94532355109</v>
+        <v>1.430105862825</v>
       </c>
       <c r="R12">
-        <v>8.507911959809999</v>
+        <v>12.870952765425</v>
       </c>
       <c r="S12">
-        <v>0.04603705957832804</v>
+        <v>0.07576328878790088</v>
       </c>
       <c r="T12">
-        <v>0.04603705957832804</v>
+        <v>0.0757632887879009</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H13">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I13">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J13">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N13">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O13">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P13">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q13">
-        <v>0.2135846601844444</v>
+        <v>0.560986093215</v>
       </c>
       <c r="R13">
-        <v>1.92226194166</v>
+        <v>5.048874838934999</v>
       </c>
       <c r="S13">
-        <v>0.01040152835988329</v>
+        <v>0.02971958404693657</v>
       </c>
       <c r="T13">
-        <v>0.01040152835988329</v>
+        <v>0.02971958404693658</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H14">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I14">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J14">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N14">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O14">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P14">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q14">
-        <v>0.3271248287034444</v>
+        <v>0.03772871259422222</v>
       </c>
       <c r="R14">
-        <v>2.944123458331</v>
+        <v>0.339558413348</v>
       </c>
       <c r="S14">
-        <v>0.01593091086243026</v>
+        <v>0.001998769057715244</v>
       </c>
       <c r="T14">
-        <v>0.01593091086243026</v>
+        <v>0.001998769057715245</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H15">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I15">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J15">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.56316</v>
       </c>
       <c r="O15">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P15">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q15">
-        <v>0.1627522244577777</v>
+        <v>0.009315738862222221</v>
       </c>
       <c r="R15">
-        <v>1.46477002012</v>
+        <v>0.08384164976</v>
       </c>
       <c r="S15">
-        <v>0.007925999352527283</v>
+        <v>0.0004935236139071615</v>
       </c>
       <c r="T15">
-        <v>0.007925999352527285</v>
+        <v>0.0004935236139071616</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H16">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I16">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J16">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N16">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O16">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P16">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q16">
-        <v>0.5068110266779999</v>
+        <v>0.03692638954888889</v>
       </c>
       <c r="R16">
-        <v>4.561299240102</v>
+        <v>0.33233750594</v>
       </c>
       <c r="S16">
-        <v>0.02468159118983733</v>
+        <v>0.00195626406968261</v>
       </c>
       <c r="T16">
-        <v>0.02468159118983734</v>
+        <v>0.00195626406968261</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H17">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I17">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J17">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N17">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O17">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P17">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q17">
-        <v>0.1145079489302222</v>
+        <v>0.01448507522977778</v>
       </c>
       <c r="R17">
-        <v>1.030571540372</v>
+        <v>0.130365677068</v>
       </c>
       <c r="S17">
-        <v>0.005576513206525305</v>
+        <v>0.0007673816087854298</v>
       </c>
       <c r="T17">
-        <v>0.005576513206525306</v>
+        <v>0.0007673816087854299</v>
       </c>
     </row>
   </sheetData>
